--- a/entries.xlsx
+++ b/entries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thana\Desktop\curriculum-vitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thana\Documents\Resume-Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDE162-05EA-4295-BCFD-A43C33478CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09942A27-31D0-45CE-BB71-D736046DB2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="671" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
   <si>
     <t>Include</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>Programmed community events to address the needs of 1,800 residents.</t>
+  </si>
+  <si>
+    <t>A data-driven tool to build this resume</t>
+  </si>
+  <si>
+    <t>Resume Builder</t>
   </si>
 </sst>
 </file>
@@ -5294,7 +5300,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -5470,10 +5476,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14974EF7-9F67-4A5F-A7D9-42E3926DC321}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5541,6 +5547,20 @@
       </c>
       <c r="D4" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/entries.xlsx
+++ b/entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thana\Documents\Resume-Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09942A27-31D0-45CE-BB71-D736046DB2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B7A0D7-BBD6-4FC6-8EFC-806F9031F80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="123">
   <si>
     <t>Include</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Resume Builder</t>
+  </si>
+  <si>
+    <t>Created virtual machine images with security vulnerabilities for student practice alongside lessons.</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1288,6 +1291,9 @@
       </c>
       <c r="G9" s="27" t="s">
         <v>114</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5478,7 +5484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14974EF7-9F67-4A5F-A7D9-42E3926DC321}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/entries.xlsx
+++ b/entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thana\Documents\Resume-Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB87A29D-3B7A-4608-B564-A183BC15A53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30E5B8-59BB-481E-BF8B-F96BF1BB897D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="4350" windowWidth="24090" windowHeight="15435" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -562,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1066,7 +1063,7 @@
   <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1122,10 +1119,12 @@
       <c r="D2" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>44105</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="29">
+        <v>44166</v>
+      </c>
       <c r="G2" s="27" t="s">
         <v>126</v>
       </c>
